--- a/开发文档/05 开发计划表.xlsx
+++ b/开发文档/05 开发计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9360"/>
+    <workbookView windowWidth="15600" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="第1次迭代" sheetId="1" r:id="rId1"/>
@@ -14,32 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
-  <si>
-    <t>xxxx项目组第1次迭代开发计划表</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
+  <si>
+    <t>喵里奥项目组第1次迭代开发计划表</t>
   </si>
   <si>
     <t>迭代时间：</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2018.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6.4 - 2018.6.6</t>
-    </r>
+    <t>2019.4. - 2018.6.6</t>
   </si>
   <si>
     <t>功能序号</t>
@@ -81,7 +64,16 @@
     <t>褚宏伟</t>
   </si>
   <si>
-    <t>未开始</t>
+    <t>2019.4.8</t>
+  </si>
+  <si>
+    <t>2019.5.12</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>无</t>
   </si>
   <si>
     <t>按钮</t>
@@ -93,6 +85,9 @@
     <t>李亮</t>
   </si>
   <si>
+    <t>2019.5.15</t>
+  </si>
+  <si>
     <t>游戏页面</t>
   </si>
   <si>
@@ -103,6 +98,9 @@
   </si>
   <si>
     <t>苏天鹏</t>
+  </si>
+  <si>
+    <t>2019.5.16</t>
   </si>
   <si>
     <t>背景图片的添加与移动</t>
@@ -143,10 +141,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -184,6 +182,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -191,6 +204,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -198,26 +261,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,94 +323,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -348,85 +346,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,97 +526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,60 +616,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -701,6 +651,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -720,161 +718,161 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -931,12 +929,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1304,10 +1296,10 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.2" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.1" style="3" customWidth="1"/>
@@ -1336,7 +1328,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="5"/>
-      <c r="I1" s="24"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="1:9">
       <c r="A2" s="6" t="s">
@@ -1383,165 +1375,213 @@
       <c r="E3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="39.95" customHeight="1" spans="1:9">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="7"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="39.95" customHeight="1" spans="1:9">
       <c r="A5" s="12">
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="H5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="39.95" customHeight="1" spans="1:9">
       <c r="A6" s="16"/>
       <c r="B6" s="17"/>
       <c r="C6" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="F6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" ht="39.95" customHeight="1" spans="1:9">
       <c r="A7" s="16"/>
       <c r="B7" s="17"/>
       <c r="C7" s="14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="F7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
       <c r="H7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" ht="39.95" customHeight="1" spans="1:9">
       <c r="A8" s="16"/>
       <c r="B8" s="17"/>
       <c r="C8" s="14" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
       <c r="H8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" ht="39.95" customHeight="1" spans="1:9">
       <c r="A9" s="16"/>
       <c r="B9" s="18"/>
       <c r="C9" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="14"/>
       <c r="H9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A10" s="20">
+      <c r="A10" s="16">
         <v>3</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="7"/>
     </row>
     <row r="11" s="2" customFormat="1" ht="39.95" customHeight="1" spans="1:2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">
